--- a/biology/Zoologie/Glossoscolecidae/Glossoscolecidae.xlsx
+++ b/biology/Zoologie/Glossoscolecidae/Glossoscolecidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glossoscolecidae est une famille de vers de terre originaire de l'Amérique centrale et de l'Amérique du Sud.
 Cette famille compose l'immense majorité des espèces rencontrées en Amazonie avec plus de 35 genres et des centaines d'espèces. La majorité d'entre elles ont été décrites par Gilberto Righi, le père de la taxonomie des oligochètes terricoles d'Amérique du Sud.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (12 janvier 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (12 janvier 2019) :
 genre Aicodrilus Righi, 1971
 genre Alexidrilus Righi, 1971
 genre Amazo Righi, Ayres &amp; Bittencourt, 1976
